--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -748,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,10 +846,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,53 +914,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1233,7 +1251,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1254,41 +1272,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1312,101 +1330,101 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="41">
         <v>45134</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="50">
+      <c r="D5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41">
         <v>45135</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="43">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="54" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="46" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="57">
         <v>45138</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="42">
+      <c r="D6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="57">
         <v>45142</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="59">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="34">
         <v>45145</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="34">
         <v>45149</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B8" s="10" t="s">
@@ -1492,7 +1510,7 @@
       <c r="G10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <v>45166</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1590,7 +1608,7 @@
       <c r="G13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>45190</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -1720,7 +1738,7 @@
       <c r="G17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>45215</v>
       </c>
       <c r="I17" s="15" t="s">
@@ -1786,7 +1804,7 @@
       <c r="G19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="32">
         <v>45229</v>
       </c>
       <c r="I19" s="15" t="s">
@@ -1854,7 +1872,7 @@
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>45243</v>
       </c>
       <c r="I21" s="15" t="s">
@@ -1952,7 +1970,7 @@
       <c r="G24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>45264</v>
       </c>
       <c r="I24" s="14" t="s">
@@ -2050,7 +2068,7 @@
       <c r="G27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <v>45286</v>
       </c>
       <c r="I27" s="14" t="s">
@@ -2171,32 +2189,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
